--- a/tests/semantic_clusters_stats_9948.xlsx
+++ b/tests/semantic_clusters_stats_9948.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="109">
   <si>
     <t>question</t>
   </si>
@@ -200,139 +200,142 @@
     <t>обмен лучшими практиками</t>
   </si>
   <si>
+    <t>обмен лучшими практика</t>
+  </si>
+  <si>
+    <t>били информации</t>
+  </si>
+  <si>
+    <t>обмен опыт</t>
+  </si>
+  <si>
+    <t>личное знакомство ю коллеги</t>
+  </si>
+  <si>
+    <t>почерк общение е хосе отмена пар</t>
+  </si>
+  <si>
+    <t>общение практика опыт коллега</t>
+  </si>
+  <si>
+    <t>важно интересный нино</t>
+  </si>
+  <si>
+    <t>взаимодействие ю коллеги</t>
+  </si>
+  <si>
+    <t>потребность бизнеса</t>
+  </si>
+  <si>
+    <t>понять двигаемся е верно</t>
+  </si>
+  <si>
+    <t>доклад спикер е</t>
+  </si>
+  <si>
+    <t>эффективность результат</t>
+  </si>
+  <si>
+    <t>опыт коллега е презентация ам</t>
+  </si>
+  <si>
+    <t>общение ю коллеги</t>
+  </si>
+  <si>
+    <t>лучшие практика е стратегия</t>
+  </si>
+  <si>
+    <t>ликбез экономика</t>
+  </si>
+  <si>
+    <t>знакомство е</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>обмен практика</t>
   </si>
   <si>
-    <t>план ближайший залачами</t>
-  </si>
-  <si>
-    <t>обмен опыт</t>
-  </si>
-  <si>
-    <t>личное знакомство коллеги</t>
-  </si>
-  <si>
-    <t>знакомства общение</t>
-  </si>
-  <si>
-    <t>общение практика опыт коллеги</t>
-  </si>
-  <si>
-    <t>лучшие практика стратегия</t>
-  </si>
-  <si>
-    <t>личное общение коллеги</t>
-  </si>
-  <si>
-    <t>взаимодействие коллеги</t>
-  </si>
-  <si>
-    <t>потребность бизнеса</t>
-  </si>
-  <si>
-    <t>амара энергия</t>
-  </si>
-  <si>
-    <t>вдохновляющая речь ю</t>
-  </si>
-  <si>
-    <t>встреча коллеги</t>
+    <t>знакомство ю единомышленниками</t>
+  </si>
+  <si>
+    <t>знакомства е общение</t>
+  </si>
+  <si>
+    <t>тиражирование лучших практика</t>
+  </si>
+  <si>
+    <t>увидеть коллега е реае</t>
+  </si>
+  <si>
+    <t>опыт коллега</t>
+  </si>
+  <si>
+    <t>вдохновляющая речь ю е ми е</t>
+  </si>
+  <si>
+    <t>работа е группа</t>
+  </si>
+  <si>
+    <t>доклад ю ми е николаевой</t>
+  </si>
+  <si>
+    <t>доклад ги е журавлевой</t>
+  </si>
+  <si>
+    <t>взаимодействие ма</t>
+  </si>
+  <si>
+    <t>презентация коллега</t>
+  </si>
+  <si>
+    <t>обмен опыт лучшими практика</t>
+  </si>
+  <si>
+    <t>лучшие практика</t>
+  </si>
+  <si>
+    <t>экспертиза ма направлении</t>
+  </si>
+  <si>
+    <t>встреча ю коллеги е</t>
+  </si>
+  <si>
+    <t>вовлеченность е обмен опыт</t>
+  </si>
+  <si>
+    <t>обмен практически опыт</t>
+  </si>
+  <si>
+    <t>знакомство ю коллеги</t>
+  </si>
+  <si>
+    <t>практика других предприятие</t>
+  </si>
+  <si>
+    <t>план ю ближайший залачами</t>
   </si>
   <si>
     <t>системе подача информации</t>
   </si>
   <si>
-    <t>ликбез экономика</t>
-  </si>
-  <si>
-    <t>понять двигаемся вернем</t>
-  </si>
-  <si>
-    <t>знакомство</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>били информации</t>
-  </si>
-  <si>
-    <t>знакомство единомышленниками</t>
-  </si>
-  <si>
-    <t>тиражирование лучших практика</t>
-  </si>
-  <si>
-    <t>ванной интересное нико</t>
-  </si>
-  <si>
-    <t>увидеть коллеги реае</t>
-  </si>
-  <si>
-    <t>опыт коллеги</t>
-  </si>
-  <si>
-    <t>работа группа</t>
-  </si>
-  <si>
-    <t>доклад ю николаевой</t>
-  </si>
-  <si>
-    <t>доклад юг журавлевой</t>
-  </si>
-  <si>
-    <t>эффективность результат</t>
-  </si>
-  <si>
-    <t>взаимодействие апо ух</t>
-  </si>
-  <si>
-    <t>презентация коллеги</t>
-  </si>
-  <si>
-    <t>обмен опыт лучшими практика</t>
-  </si>
-  <si>
-    <t>лучшие практика</t>
-  </si>
-  <si>
-    <t>общение коллеги</t>
-  </si>
-  <si>
-    <t>экспертиза ух направление</t>
-  </si>
-  <si>
-    <t>опыт коллеги презентация юг</t>
-  </si>
-  <si>
-    <t>вовлеченность обмен опыт</t>
-  </si>
-  <si>
-    <t>обмен практически опыт</t>
-  </si>
-  <si>
-    <t>знакомство коллеги</t>
-  </si>
-  <si>
-    <t>практика других предприятие</t>
-  </si>
-  <si>
-    <t>доклад спикер</t>
-  </si>
-  <si>
-    <t>направление приор направление деятельность</t>
+    <t>направление просит направление деятельность</t>
+  </si>
+  <si>
+    <t>отмена опыт</t>
+  </si>
+  <si>
+    <t>арт энергия</t>
   </si>
   <si>
     <t>выступление юлия михайловны</t>
   </si>
   <si>
-    <t>почерк общение ходи обмен пи</t>
-  </si>
-  <si>
-    <t>обмен лучшими практика</t>
+    <t>личное общение ю коллеги</t>
   </si>
   <si>
     <t>cluster_name</t>
@@ -748,7 +751,7 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -774,7 +777,7 @@
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,7 +855,7 @@
         <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -924,13 +927,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -976,13 +979,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1002,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
@@ -1028,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1054,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -1106,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1132,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
         <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1158,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1184,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1210,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
         <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1236,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
         <v>78</v>
@@ -1314,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>78</v>
@@ -1340,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -1366,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -1418,13 +1421,13 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1470,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1496,13 +1499,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
         <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1522,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1548,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
         <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1580,7 +1583,7 @@
         <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1606,7 +1609,7 @@
         <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1678,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1704,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
         <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1730,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1756,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
         <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1814,7 +1817,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1834,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
         <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1886,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
         <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
         <v>78</v>
@@ -1964,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>78</v>
@@ -1996,7 +1999,7 @@
         <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2016,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2042,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -2100,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2126,7 +2129,7 @@
         <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2146,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2172,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
         <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2198,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
         <v>78</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2224,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2250,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
         <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2274,10 +2277,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2288,7 +2291,7 @@
         <v>61</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2332,7 +2335,7 @@
         <v>65</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,7 +2357,7 @@
         <v>66</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2365,7 +2368,7 @@
         <v>67</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2376,7 +2379,7 @@
         <v>68</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2387,7 +2390,7 @@
         <v>69</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2395,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2406,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2417,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2428,10 +2431,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2439,7 +2442,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2450,10 +2453,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2461,10 +2464,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2472,9 +2475,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="C19">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
